--- a/Messprotokolle/24T005040+AT-25-0738+12.xlsx
+++ b/Messprotokolle/24T005040+AT-25-0738+12.xlsx
@@ -1634,7 +1634,7 @@
       <c r="E3" s="113" t="n"/>
       <c r="F3" s="114" t="inlineStr">
         <is>
-          <t>Bemerkungen: bla bla</t>
+          <t>Bemerkungen:</t>
         </is>
       </c>
       <c r="G3" s="113" t="n"/>
@@ -1737,23 +1737,11 @@
         </is>
       </c>
       <c r="F5" s="120" t="n"/>
-      <c r="G5" s="121" t="inlineStr">
-        <is>
-          <t>optisch</t>
-        </is>
-      </c>
+      <c r="G5" s="121" t="inlineStr"/>
       <c r="H5" s="120" t="n"/>
-      <c r="I5" s="121" t="inlineStr">
-        <is>
-          <t>Messuhr</t>
-        </is>
-      </c>
+      <c r="I5" s="121" t="inlineStr"/>
       <c r="J5" s="120" t="n"/>
-      <c r="K5" s="121" t="inlineStr">
-        <is>
-          <t>Aussen Mikrometer</t>
-        </is>
-      </c>
+      <c r="K5" s="121" t="inlineStr"/>
       <c r="L5" s="120" t="n"/>
       <c r="M5" s="121" t="inlineStr"/>
       <c r="N5" s="120" t="n"/>
@@ -1871,36 +1859,12 @@
       <c r="D8" s="128" t="n"/>
       <c r="E8" s="127" t="n"/>
       <c r="F8" s="128" t="n"/>
-      <c r="G8" s="129" t="inlineStr">
-        <is>
-          <t>49,0000</t>
-        </is>
-      </c>
-      <c r="H8" s="25" t="inlineStr">
-        <is>
-          <t>+0.034</t>
-        </is>
-      </c>
-      <c r="I8" s="129" t="inlineStr">
-        <is>
-          <t>100,0000</t>
-        </is>
-      </c>
-      <c r="J8" s="25" t="inlineStr">
-        <is>
-          <t>+0.090</t>
-        </is>
-      </c>
-      <c r="K8" s="129" t="inlineStr">
-        <is>
-          <t>8,1000</t>
-        </is>
-      </c>
-      <c r="L8" s="27" t="inlineStr">
-        <is>
-          <t>+0.090</t>
-        </is>
-      </c>
+      <c r="G8" s="129" t="inlineStr"/>
+      <c r="H8" s="25" t="inlineStr"/>
+      <c r="I8" s="129" t="inlineStr"/>
+      <c r="J8" s="25" t="inlineStr"/>
+      <c r="K8" s="129" t="inlineStr"/>
+      <c r="L8" s="27" t="inlineStr"/>
       <c r="M8" s="129" t="inlineStr"/>
       <c r="N8" s="25" t="inlineStr"/>
       <c r="O8" s="129" t="inlineStr"/>
@@ -1930,23 +1894,11 @@
       <c r="E9" s="123" t="n"/>
       <c r="F9" s="118" t="n"/>
       <c r="G9" s="132" t="n"/>
-      <c r="H9" s="26" t="inlineStr">
-        <is>
-          <t>+0.009</t>
-        </is>
-      </c>
+      <c r="H9" s="26" t="inlineStr"/>
       <c r="I9" s="132" t="n"/>
-      <c r="J9" s="26" t="inlineStr">
-        <is>
-          <t>+0.036</t>
-        </is>
-      </c>
+      <c r="J9" s="26" t="inlineStr"/>
       <c r="K9" s="132" t="n"/>
-      <c r="L9" s="28" t="inlineStr">
-        <is>
-          <t>+0.000</t>
-        </is>
-      </c>
+      <c r="L9" s="28" t="inlineStr"/>
       <c r="M9" s="132" t="n"/>
       <c r="N9" s="26" t="inlineStr"/>
       <c r="O9" s="132" t="n"/>
@@ -1973,19 +1925,19 @@
       <c r="F10" s="120" t="n"/>
       <c r="G10" s="51" t="inlineStr">
         <is>
-          <t>49,0215</t>
+          <t>---</t>
         </is>
       </c>
       <c r="H10" s="15" t="n"/>
       <c r="I10" s="51" t="inlineStr">
         <is>
-          <t>100,0630</t>
+          <t>---</t>
         </is>
       </c>
       <c r="J10" s="18" t="n"/>
       <c r="K10" s="51" t="inlineStr">
         <is>
-          <t>8,1450</t>
+          <t>---</t>
         </is>
       </c>
       <c r="L10" s="18" t="n"/>
@@ -2574,11 +2526,7 @@
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="121" t="inlineStr"/>
       <c r="J29" s="120" t="n"/>
-      <c r="K29" s="121" t="inlineStr">
-        <is>
-          <t>Rugotest</t>
-        </is>
-      </c>
+      <c r="K29" s="121" t="inlineStr"/>
       <c r="L29" s="120" t="n"/>
       <c r="M29" s="121" t="inlineStr"/>
       <c r="N29" s="120" t="n"/>
@@ -2700,16 +2648,8 @@
       <c r="H32" s="27" t="inlineStr"/>
       <c r="I32" s="129" t="inlineStr"/>
       <c r="J32" s="16" t="inlineStr"/>
-      <c r="K32" s="129" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="L32" s="16" t="inlineStr">
-        <is>
-          <t>+0.050</t>
-        </is>
-      </c>
+      <c r="K32" s="129" t="inlineStr"/>
+      <c r="L32" s="16" t="inlineStr"/>
       <c r="M32" s="129" t="inlineStr"/>
       <c r="N32" s="16" t="inlineStr"/>
       <c r="O32" s="129" t="inlineStr"/>
@@ -2743,11 +2683,7 @@
       <c r="I33" s="132" t="n"/>
       <c r="J33" s="14" t="inlineStr"/>
       <c r="K33" s="132" t="n"/>
-      <c r="L33" s="14" t="inlineStr">
-        <is>
-          <t>+0.025</t>
-        </is>
-      </c>
+      <c r="L33" s="14" t="inlineStr"/>
       <c r="M33" s="132" t="n"/>
       <c r="N33" s="14" t="inlineStr"/>
       <c r="O33" s="132" t="n"/>
@@ -2794,7 +2730,7 @@
       <c r="J34" s="18" t="n"/>
       <c r="K34" s="129" t="inlineStr">
         <is>
-          <t>50,0375</t>
+          <t>---</t>
         </is>
       </c>
       <c r="L34" s="18" t="n"/>
